--- a/biology/Botanique/Croix_de_Noailles/Croix_de_Noailles.xlsx
+++ b/biology/Botanique/Croix_de_Noailles/Croix_de_Noailles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La croix de Noailles est une croix de chemin du XVIIIe siècle située au centre de la forêt de Saint-Germain-en-Laye, en Île-de-France.
 </t>
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La croix de Noailles est située au centre de la forêt de Saint-Germain-en-Laye, sur le territoire de la commune de Saint-Germain-en-Laye. Elle s'élève au croisement de la N184 (sur un axe nord-sud qui mène de Conflans-Sainte-Honorine à Saint-Germain-en-Laye) et de la D308 (sur un axe est-ouest qui mène de Maisons-Laffitte à Poissy).
 </t>
@@ -542,11 +556,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La croix de Noailles est érigée en 1751 sur ordre de Adrien Maurice de Noailles[1].
-Pendant la Révolution, la croix de fer[2] qui surmontait la colonne, ainsi que l'inscription à sa base, sont retirées en application d'un arrêté du conseil général de la commune de Saint-Germain-en-Laye du 4 février 1793[3].
-La croix de Noailles est classée monument historique en 1942, par un arrêté du 22 août[4],[5], puis restaurée en 1953[6],[7]. Elle est bénie le 25 juin 1953[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La croix de Noailles est érigée en 1751 sur ordre de Adrien Maurice de Noailles.
+Pendant la Révolution, la croix de fer qui surmontait la colonne, ainsi que l'inscription à sa base, sont retirées en application d'un arrêté du conseil général de la commune de Saint-Germain-en-Laye du 4 février 1793.
+La croix de Noailles est classée monument historique en 1942, par un arrêté du 22 août puis restaurée en 1953,. Elle est bénie le 25 juin 1953.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La croix surmonte une colonne dorique à fût cannelé et rudenté dont le socle mouluré présente quatre médaillons sur certains desquels sont sculptés des blasons ; l'ensemble repose sur une base ronde surélevée de deux marches[6],[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La croix surmonte une colonne dorique à fût cannelé et rudenté dont le socle mouluré présente quatre médaillons sur certains desquels sont sculptés des blasons ; l'ensemble repose sur une base ronde surélevée de deux marches,.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Autre destination</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'IGN a installé un repère de nivellement NGF sur sa face côté Saint-Germain, à 23 cm au-dessus du socle[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'IGN a installé un repère de nivellement NGF sur sa face côté Saint-Germain, à 23 cm au-dessus du socle.
 </t>
         </is>
       </c>
